--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adipoq-Adipor1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Adipoq</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,13 +540,13 @@
         <v>0.1884053333333333</v>
       </c>
       <c r="H2">
-        <v>0.5652159999999999</v>
+        <v>0.5652160000000001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.85765966666667</v>
+        <v>27.65020566666666</v>
       </c>
       <c r="N2">
-        <v>92.572979</v>
+        <v>82.95061699999999</v>
       </c>
       <c r="O2">
-        <v>0.3417526460215603</v>
+        <v>0.325102305838462</v>
       </c>
       <c r="P2">
-        <v>0.3417526460215604</v>
+        <v>0.325102305838462</v>
       </c>
       <c r="Q2">
-        <v>5.813747655384888</v>
+        <v>5.209446215363555</v>
       </c>
       <c r="R2">
-        <v>52.323728898464</v>
+        <v>46.885015938272</v>
       </c>
       <c r="S2">
-        <v>0.3417526460215603</v>
+        <v>0.1961195385175551</v>
       </c>
       <c r="T2">
-        <v>0.3417526460215604</v>
+        <v>0.1961195385175551</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,13 +602,13 @@
         <v>0.1884053333333333</v>
       </c>
       <c r="H3">
-        <v>0.5652159999999999</v>
+        <v>0.5652160000000001</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>44.564205</v>
       </c>
       <c r="O3">
-        <v>0.1645181470998924</v>
+        <v>0.1746572397810847</v>
       </c>
       <c r="P3">
-        <v>0.1645181470998924</v>
+        <v>0.1746572397810847</v>
       </c>
       <c r="Q3">
-        <v>2.798711299253333</v>
+        <v>2.798711299253334</v>
       </c>
       <c r="R3">
         <v>25.18840169328</v>
       </c>
       <c r="S3">
-        <v>0.1645181470998924</v>
+        <v>0.1053628247153571</v>
       </c>
       <c r="T3">
-        <v>0.1645181470998924</v>
+        <v>0.1053628247153571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,13 +664,13 @@
         <v>0.1884053333333333</v>
       </c>
       <c r="H4">
-        <v>0.5652159999999999</v>
+        <v>0.5652160000000001</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.318957333333334</v>
+        <v>12.620438</v>
       </c>
       <c r="N4">
-        <v>27.956872</v>
+        <v>37.861314</v>
       </c>
       <c r="O4">
-        <v>0.1032086801536987</v>
+        <v>0.1483870877473286</v>
       </c>
       <c r="P4">
-        <v>0.1032086801536988</v>
+        <v>0.1483870877473286</v>
       </c>
       <c r="Q4">
-        <v>1.755741262705778</v>
+        <v>2.377757828202667</v>
       </c>
       <c r="R4">
-        <v>15.801671364352</v>
+        <v>21.399820453824</v>
       </c>
       <c r="S4">
-        <v>0.1032086801536987</v>
+        <v>0.08951522843221586</v>
       </c>
       <c r="T4">
-        <v>0.1032086801536988</v>
+        <v>0.08951522843221586</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -726,13 +726,13 @@
         <v>0.1884053333333333</v>
       </c>
       <c r="H5">
-        <v>0.5652159999999999</v>
+        <v>0.5652160000000001</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.603254837001998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.26102766666667</v>
+        <v>29.92540433333333</v>
       </c>
       <c r="N5">
-        <v>105.783083</v>
+        <v>89.776213</v>
       </c>
       <c r="O5">
-        <v>0.3905205267248485</v>
+        <v>0.3518533666331248</v>
       </c>
       <c r="P5">
-        <v>0.3905205267248485</v>
+        <v>0.3518533666331247</v>
       </c>
       <c r="Q5">
-        <v>6.643365671214222</v>
+        <v>5.638105778556445</v>
       </c>
       <c r="R5">
-        <v>59.790291040928</v>
+        <v>50.742952007008</v>
       </c>
       <c r="S5">
-        <v>0.3905205267248485</v>
+        <v>0.2122572453368699</v>
       </c>
       <c r="T5">
-        <v>0.3905205267248485</v>
+        <v>0.2122572453368699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.1239093333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.371728</v>
+      </c>
+      <c r="I6">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="J6">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>27.65020566666666</v>
+      </c>
+      <c r="N6">
+        <v>82.95061699999999</v>
+      </c>
+      <c r="O6">
+        <v>0.325102305838462</v>
+      </c>
+      <c r="P6">
+        <v>0.325102305838462</v>
+      </c>
+      <c r="Q6">
+        <v>3.426118550686222</v>
+      </c>
+      <c r="R6">
+        <v>30.835066956176</v>
+      </c>
+      <c r="S6">
+        <v>0.1289827673209069</v>
+      </c>
+      <c r="T6">
+        <v>0.1289827673209069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1239093333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.371728</v>
+      </c>
+      <c r="I7">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="J7">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14.854735</v>
+      </c>
+      <c r="N7">
+        <v>44.564205</v>
+      </c>
+      <c r="O7">
+        <v>0.1746572397810847</v>
+      </c>
+      <c r="P7">
+        <v>0.1746572397810847</v>
+      </c>
+      <c r="Q7">
+        <v>1.840640310693333</v>
+      </c>
+      <c r="R7">
+        <v>16.56576279624</v>
+      </c>
+      <c r="S7">
+        <v>0.06929441506572756</v>
+      </c>
+      <c r="T7">
+        <v>0.06929441506572755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1239093333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.371728</v>
+      </c>
+      <c r="I8">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="J8">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>12.620438</v>
+      </c>
+      <c r="N8">
+        <v>37.861314</v>
+      </c>
+      <c r="O8">
+        <v>0.1483870877473286</v>
+      </c>
+      <c r="P8">
+        <v>0.1483870877473286</v>
+      </c>
+      <c r="Q8">
+        <v>1.563790058954667</v>
+      </c>
+      <c r="R8">
+        <v>14.074110530592</v>
+      </c>
+      <c r="S8">
+        <v>0.0588718593151127</v>
+      </c>
+      <c r="T8">
+        <v>0.0588718593151127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1239093333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.371728</v>
+      </c>
+      <c r="I9">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="J9">
+        <v>0.396745162998002</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>29.92540433333333</v>
+      </c>
+      <c r="N9">
+        <v>89.776213</v>
+      </c>
+      <c r="O9">
+        <v>0.3518533666331248</v>
+      </c>
+      <c r="P9">
+        <v>0.3518533666331247</v>
+      </c>
+      <c r="Q9">
+        <v>3.708036900673778</v>
+      </c>
+      <c r="R9">
+        <v>33.372332106064</v>
+      </c>
+      <c r="S9">
+        <v>0.1395961212962548</v>
+      </c>
+      <c r="T9">
+        <v>0.1395961212962548</v>
       </c>
     </row>
   </sheetData>
